--- a/biology/Botanique/Jardin_botanique_de_Foncaude/Jardin_botanique_de_Foncaude.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Foncaude/Jardin_botanique_de_Foncaude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le Jardin botanique de Foncaude est un jardin botanique de sept hectares sur la commune de Feuilla dans le département de l'Aude et la région Occitanie, en France.
 Créé à partir de parcours botaniques dans les Corbières en 1991, le jardin compte, une vingtaine d'années plus tard, quelque 2 000 espèces de plantes. Il est composé de trois parties :
